--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-16 08:28:05</t>
+          <t>2022/05/16 08:28:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-05-16 17:06:22</t>
+          <t>2022/05/16 17:06:22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-05-16 16:55:17</t>
+          <t>2022/05/16 16:55:17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-05-17 10:46:11</t>
+          <t>2022/05/17 10:46:11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,12 +505,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-05-20 16:54:42</t>
+          <t>2022/05/20 16:54:42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-05-23 17:15:02</t>
+          <t>2022/05/23 17:15:02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,12 +532,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-05-03 09:30:32</t>
+          <t>2022/05/03 09:30:32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2022-05-05 14:05:41</t>
+          <t>2022/05/05 14:05:41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -553,6 +553,114 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022/08/23 12:05:32</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2022/08/23 21:05:32</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022/08/23 07:00:32</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2022/08/24 21:05:32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2285</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022/03/25 09:03:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2022/03/30 16:15:29</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7632</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>127.2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022/03/26 11:00:06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022/03/29 09:17:45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4218</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.3</t>
         </is>
       </c>
     </row>
